--- a/pro.xlsx
+++ b/pro.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21212141-D385-477D-8CAC-83E1C570B34C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285565C8-62E0-41E0-8A3E-043A5260A271}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D6"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +410,7 @@
         <v>2728382</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -430,7 +430,7 @@
         <v>2845959</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>

--- a/pro.xlsx
+++ b/pro.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285565C8-62E0-41E0-8A3E-043A5260A271}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78194102-8507-42D1-81D5-CF4A048A0A80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2728382</v>
+        <v>2845959</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -427,7 +427,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2845959</v>
+        <v>2728382</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
